--- a/NOI/I/Testers/results_A.txt.xlsx
+++ b/NOI/I/Testers/results_A.txt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
   <si>
     <t>person</t>
   </si>
@@ -46,6 +46,33 @@
     <t>175 (total)</t>
   </si>
   <si>
+    <t>AIV</t>
+  </si>
+  <si>
+    <t>30 (fib2)</t>
+  </si>
+  <si>
+    <t>95 (hand)</t>
+  </si>
+  <si>
+    <t>225 (total)</t>
+  </si>
+  <si>
+    <t>AKM</t>
+  </si>
+  <si>
+    <t>10 (fib2)</t>
+  </si>
+  <si>
+    <t>35 (hand)</t>
+  </si>
+  <si>
+    <t>60 (slope)</t>
+  </si>
+  <si>
+    <t>105 (total)</t>
+  </si>
+  <si>
     <t>AOS</t>
   </si>
   <si>
@@ -76,19 +103,91 @@
     <t>DNT</t>
   </si>
   <si>
-    <t>30 (fib2)</t>
-  </si>
-  <si>
     <t>110 (total)</t>
   </si>
   <si>
+    <t>DZS</t>
+  </si>
+  <si>
+    <t>0 (slope)</t>
+  </si>
+  <si>
+    <t>GPP</t>
+  </si>
+  <si>
     <t>GSD</t>
   </si>
   <si>
-    <t>10 (fib2)</t>
-  </si>
-  <si>
-    <t>0 (slope)</t>
+    <t>GTD</t>
+  </si>
+  <si>
+    <t>0 (total)</t>
+  </si>
+  <si>
+    <t>GTJ</t>
+  </si>
+  <si>
+    <t>HCM</t>
+  </si>
+  <si>
+    <t>115 (total)</t>
+  </si>
+  <si>
+    <t>IDI</t>
+  </si>
+  <si>
+    <t>100 (fib2)</t>
+  </si>
+  <si>
+    <t>295 (total)</t>
+  </si>
+  <si>
+    <t>ILB</t>
+  </si>
+  <si>
+    <t>255 (total)</t>
+  </si>
+  <si>
+    <t>IPK</t>
+  </si>
+  <si>
+    <t>95 (total)</t>
+  </si>
+  <si>
+    <t>JVL</t>
+  </si>
+  <si>
+    <t>KAB</t>
+  </si>
+  <si>
+    <t>130 (total)</t>
+  </si>
+  <si>
+    <t>KEV</t>
+  </si>
+  <si>
+    <t>30 (total)</t>
+  </si>
+  <si>
+    <t>KIT</t>
+  </si>
+  <si>
+    <t>50 (slope)</t>
+  </si>
+  <si>
+    <t>50 (total)</t>
+  </si>
+  <si>
+    <t>LDN</t>
+  </si>
+  <si>
+    <t>60 (hand)</t>
+  </si>
+  <si>
+    <t>150 (total)</t>
+  </si>
+  <si>
+    <t>MGK</t>
   </si>
   <si>
     <t>MMF</t>
@@ -121,9 +220,6 @@
     <t>55 (hand)</t>
   </si>
   <si>
-    <t>50 (slope)</t>
-  </si>
-  <si>
     <t>125 (total)</t>
   </si>
   <si>
@@ -139,12 +235,12 @@
     <t>165 (total)</t>
   </si>
   <si>
+    <t>NSV</t>
+  </si>
+  <si>
     <t>PMT</t>
   </si>
   <si>
-    <t>150 (total)</t>
-  </si>
-  <si>
     <t>PTT</t>
   </si>
   <si>
@@ -154,13 +250,13 @@
     <t>PVG</t>
   </si>
   <si>
-    <t>35 (fib2)</t>
-  </si>
-  <si>
-    <t>95 (hand)</t>
-  </si>
-  <si>
-    <t>230 (total)</t>
+    <t>45 (fib2)</t>
+  </si>
+  <si>
+    <t>240 (total)</t>
+  </si>
+  <si>
+    <t>RRB</t>
   </si>
   <si>
     <t>TGT</t>
@@ -169,16 +265,22 @@
     <t>25 (total)</t>
   </si>
   <si>
+    <t>VAP</t>
+  </si>
+  <si>
+    <t>145 (total)</t>
+  </si>
+  <si>
     <t>VIY</t>
   </si>
   <si>
     <t>100 (total)</t>
   </si>
   <si>
+    <t>VNT</t>
+  </si>
+  <si>
     <t>VVK</t>
-  </si>
-  <si>
-    <t>50 (total)</t>
   </si>
   <si>
     <t>YLA</t>
@@ -533,7 +635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,18 +688,18 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -617,64 +719,64 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -682,152 +784,492 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
         <v>55</v>
       </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
         <v>56</v>
       </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/NOI/I/Testers/results_A.txt.xlsx
+++ b/NOI/I/Testers/results_A.txt.xlsx
@@ -250,10 +250,10 @@
     <t>PVG</t>
   </si>
   <si>
-    <t>45 (fib2)</t>
-  </si>
-  <si>
-    <t>240 (total)</t>
+    <t>35 (fib2)</t>
+  </si>
+  <si>
+    <t>230 (total)</t>
   </si>
   <si>
     <t>RRB</t>
